--- a/translations.xlsx
+++ b/translations.xlsx
@@ -458,26 +458,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Distribución por TIR y rating</t>
+          <t>Otras inversiones</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Distribution by YTM and rating</t>
+          <t>Other inv.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Autres investissements</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total costes</t>
+          <t>RVPI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total costs</t>
+          <t>RVPI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -486,12 +490,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calificación A</t>
+          <t>Costes por entidad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Rating</t>
+          <t>Costs per entity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -500,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P/G Latentes</t>
+          <t>Valor residual</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W/L Latent</t>
+          <t>Residual value</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -514,12 +518,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cantidad acciones</t>
+          <t>SEP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Number of Shares</t>
+          <t>SEP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -528,12 +532,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Evolución de valoración</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Valuation evolution</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -542,12 +546,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tipología</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Typology</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -556,12 +560,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Otros activos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Other Assets</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -570,12 +574,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(precio mercado)</t>
+          <t>Evolución patrimonial y rentabilidad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(market price)</t>
+          <t>Asset evolution and performance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -584,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Patrimonio no financiero</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Non-Financial Assets</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -598,12 +602,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Privado</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -612,12 +616,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Ventas del período</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Sales of the period</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -626,12 +630,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>En blanco</t>
+          <t>Duración media</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Average duration</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -640,12 +644,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VARIACIÓN PERIODO</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PERIOD VARIATION</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -654,12 +658,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cartera Gestionada Bankinter</t>
+          <t>Calificación A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bankinter managed portfolio</t>
+          <t>A Rating</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -668,12 +672,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Distribución por entidad financiera</t>
+          <t>Manufactura</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Distribution by financial entity</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -682,12 +686,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Yield neta actual</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Net yield current</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -696,12 +700,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HY</t>
+          <t>Patrimonial</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>High yield</t>
+          <t>Wealth</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -710,12 +714,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Rentabilidad - Renta variable</t>
+          <t>Financiero</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Return - Equities</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -724,12 +728,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nº DE ACTIVOS</t>
+          <t>Distribución por tipo de mandato</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nº OF ASSETS</t>
+          <t>Distribution by type of mandate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -738,12 +742,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Costes por tipo de gestión</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Costs by management type</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -752,12 +756,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dolar</t>
+          <t>Bonos</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dollar</t>
+          <t>Bonds</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -766,12 +770,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asesoramiento</t>
+          <t>Bankinter Premium Dinamico B FI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Advisory</t>
+          <t>Bankinter dynamic premium B FI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -780,12 +784,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Participaciones</t>
+          <t>Total fondos</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shares</t>
+          <t>Total funds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -794,12 +798,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Multiplicador sector</t>
+          <t>Valoración (precio mercado)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sector Multiplier</t>
+          <t>Valuation (market price)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -808,30 +812,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bankinter Family Office</t>
+          <t>VALORACIÓN ANTERIOR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bankinter Family Office</t>
+          <t>PREVIOUS VALUATION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Bankinter Family Office</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Salidas de liquidez</t>
+          <t>Acumulado</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liquidity outflows</t>
+          <t>Cumulative</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -840,12 +840,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TIPO INTERÉS MEDIO</t>
+          <t>Finanzas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Average interest rate</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -854,26 +854,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rating medio</t>
+          <t>VALORACIÓN ACTUAL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Average rating</t>
+          <t>CURRENT VALUATION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Évaluation actuelle</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Importe</t>
+          <t>Nº de acciones</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Number of shares</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -882,12 +886,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P/G latente</t>
+          <t>Coste invertido (mn)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unrealized P/L</t>
+          <t>Invested cost (mn)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -896,12 +900,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Rating A</t>
+          <t>En el sector inmobiliario, hemos visto una revalorización cautelosa, impulsada por el interés en activos logísticos y residenciales, reflejo de un cambio en las dinámicas de trabajo y consumo post-pandemia.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A Rating</t>
+          <t>In the real estate sector, we have seen a cautious revaluation, driven by interest in logistics and residential assets, reflecting a change in post-pandemic work and consumption dynamics.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -910,12 +914,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mayo</t>
+          <t>Div. Yield.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Div. yield</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -924,12 +928,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Importe comprometido por añadas</t>
+          <t>mes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Committed amount by vintage</t>
+          <t>month</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -938,12 +942,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Distribución por vencimientos</t>
+          <t>Proyecciones liquidez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Distribution by maturities</t>
+          <t>Liquidity projections</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -952,12 +956,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vencimiento medio</t>
+          <t>P/G PERIODO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Average maturity</t>
+          <t>W/L PERIOD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -966,12 +970,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fecha call</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Call date</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -980,12 +984,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Política Monetaria de la Reserva Federal</t>
+          <t>R. Ponderada período</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Federal reserve monetary policy</t>
+          <t>Weighted return period</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -994,30 +998,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Resumen patrimonial global</t>
+          <t>Reporting global</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Global wealth summary</t>
+          <t>Global reporting</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Résumé du patrimonial mondial</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Neto</t>
+          <t>E/S ESTIMADAS 3M</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Net</t>
+          <t>ESTIMATED 3M I/O</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1026,26 +1026,34 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Rentas</t>
+          <t>legal.notice.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Incomes</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+          <t>When reporting returns, it is necessary to specify the calculation method. For example, in the Excellence Management report, it is stated that 'The return is calculated based on the initial contribution to the Excellence Management service, without taking into account subsequent contributions or redemptions.'</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cuando se indican rentabilidades, es necesario indicar el método de cálculo de estas. Por ejemplo, en el reporte de Excellence Management, se indica que “La rentabilidad se calcula sobre la primera aportación al servicio de Excellence Management, sin tener en cuenta aportaciones ni reembolsos posteriores.”</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Lorsque cela est indiqué, il est nécessaire d'indiquer la méthode de calcul de ces derniers.Par exemple, dans le rapport de gestion de l'excellence, il est indiqué que "la rentabilité est calculée sur la première contribution au service de gestion d'excellence, sans prendre en compte les contributions ou les remboursements ultérieurs".</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sector 2</t>
+          <t>Análisis de tendencias financieras actuales</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sector 2</t>
+          <t>Analysis of current financial trends</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1054,12 +1062,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Índice de contenidos</t>
+          <t>Market cap</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Table of contents</t>
+          <t>Market cap</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1068,12 +1076,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>% sobre patrimonio</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>% of assets</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1082,12 +1090,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gestión discrecional de carteras</t>
+          <t>Div. yield.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Discretionary portfolio management</t>
+          <t>Div. yield</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1096,12 +1104,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rating BBB</t>
+          <t>Sector 2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BBB Rating</t>
+          <t>Sector 2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1110,30 +1118,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estructura familiar</t>
+          <t>Pr. compra</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Family structure</t>
+          <t>Purchase price</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Structure familière</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Prelación de pagos</t>
+          <t>Calificación AAA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Payment prelation</t>
+          <t>AAA Rating</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1142,12 +1146,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Otros financiero</t>
+          <t>Titular</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Other financial</t>
+          <t>Owner</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1156,12 +1160,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Facturación</t>
+          <t>año</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Revenue</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1170,12 +1174,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Importe distribución</t>
+          <t>Rentabilidad</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Distribution amount</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1184,12 +1188,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rentabilidad mensual y acumulada</t>
+          <t>TIR actual</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Monthly and cumulative performance</t>
+          <t>Current YTM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1198,12 +1202,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Coste adquisición (precio medio)</t>
+          <t>Resumen del patrimonio global</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Acquisition Cost (average price)</t>
+          <t>Summary of global assets</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1212,12 +1216,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Plusvalias no realizadas</t>
+          <t>Mirando hacia el futuro, la incertidumbre geopolítica y las negociaciones comerciales continúan siendo áreas de interés, con potencial para influir significativamente en la confianza del mercado y las decisiones de inversión. La capacidad de los inversores para adaptarse a estos cambios, manteniendo una visión equilibrada y a largo plazo, será crucial para navegar los meses venideros.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unrealized capital gains</t>
+          <t>Looking ahead, geopolitical uncertainty and trade negotiations continue to be areas of interest, with the potential to significantly influence market sentiment and investment decisions. Investors' ability to adapt to these changes, while maintaining a balanced, long-term view, will be crucial to navigating the months ahead.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1226,12 +1230,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Resumen patrimonio global</t>
+          <t>Multiactivos y otros</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Global asset summary</t>
+          <t>Multi-assets and others</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1240,12 +1244,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cartera Titular Conjunta</t>
+          <t>Desactivada</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Joint holder portfolio</t>
+          <t>Deactivated</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1254,12 +1258,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Monetario</t>
+          <t>Private Equity</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Monetary</t>
+          <t>Private equity</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1268,12 +1272,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Inversiones financieras</t>
+          <t>SALIDAS PERIODO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Financial investments</t>
+          <t>PERIOD OUTCOMES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1282,12 +1286,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rentabilidad/riesgo por mandato</t>
+          <t>Cantidad acciones</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Performance/Risk by mandate</t>
+          <t>Number of Shares</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1296,26 +1300,34 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>legal.subnotice.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t>The information included in this report is provided based on sources considered reliable, as well as information provided by the client.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>La información que se incluye en este informe se proporciona basándose en fuentes consideradas como fiables, así como en información proporcionada por el propio cliente.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Les informations incluses dans ce rapport sont fournies sur la base de sources considérées comme fiables, ainsi que des informations fournies par le client lui-même.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>Coste invertido</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Invested cost</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1324,12 +1336,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TIR objetivo</t>
+          <t>Top 10 holdings - Peso - Renta variable</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Target IRR</t>
+          <t>Top 10 holdings - Weight - Equities</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1338,12 +1350,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Múltiplos por año</t>
+          <t>Costes explícitos (%)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Multiples per year</t>
+          <t>Explicit costs (%)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1352,12 +1364,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TOTAL LLAMADAS CAPITAL</t>
+          <t>Subordinated</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TOTAL CAPITAL CALLS</t>
+          <t>Subordinated</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1366,12 +1378,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Capital desinvertido</t>
+          <t>TVPI</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Divested capital</t>
+          <t>TVPI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1380,12 +1392,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mantenimiento de cuenta</t>
+          <t>Fondos</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Account maintenance</t>
+          <t>Funds</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1394,12 +1406,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Costes explícitos</t>
+          <t>RENTABILIDAD PERÍODO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Explicit costs</t>
+          <t>PERIOD RETURN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1408,12 +1420,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Finanzas</t>
+          <t>DEUDA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>DEBT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1422,12 +1434,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>Tipología</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RTO</t>
+          <t>Typology</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1436,26 +1448,30 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Análisis de patrimonio financiero</t>
+          <t>Resumen patrimonial global</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Financial asset analysis</t>
+          <t>Global wealth summary</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Résumé du patrimonial mondial</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Turismo</t>
+          <t>Rating AAA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tourism</t>
+          <t>AAA Rating</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1464,12 +1480,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Dividendos</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Dividends</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1478,30 +1494,26 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Inv. alternativas</t>
+          <t>%</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Alternative inv.</t>
+          <t>%</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Inv.alternatives</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Distribución global</t>
+          <t>Análisis de riesgos</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Global distribution</t>
+          <t>Risk analysis</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1510,12 +1522,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Distribución por divisa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Currency distribution</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1524,12 +1536,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mandato</t>
+          <t>Rating BB</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mandate</t>
+          <t>BB Rating</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1538,12 +1550,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ebidta</t>
+          <t>Peso patrimonio por tipo de riesgo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ebitda</t>
+          <t>Weight of assets by risk type</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1552,12 +1564,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rating B</t>
+          <t>PENDIENTE DE DESEMBOLSO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B Rating</t>
+          <t>PENDING DISBURSEMENT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1566,12 +1578,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PATRIMONIO ACTUAL</t>
+          <t>Consumo defensivo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CURRENT ASSETS</t>
+          <t>Defensive consumption</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1580,30 +1592,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Visión mercado</t>
+          <t>Intereses</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Market vision</t>
+          <t>Interests</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Vision du marché</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>R. Ponderada</t>
+          <t>Liquidez</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Weighted return</t>
+          <t>Liquidity</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1612,12 +1620,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EUROS</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Euros</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1626,12 +1634,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Desembolsado (mn)</t>
+          <t>Rating medio</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Disbursed (mn)</t>
+          <t>Average rating</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1640,12 +1648,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Rentabilidad anual</t>
+          <t>INMOBILIARIO</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Annual return</t>
+          <t>REAL ESTATE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1654,12 +1662,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Resumen del patrimonio global</t>
+          <t>Industria</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Summary of global assets</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1668,12 +1676,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Premium moderado</t>
+          <t>Titulizados</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Moderate premium</t>
+          <t>Securitized</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1682,12 +1690,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Costes implícitos (€)</t>
+          <t>VOLATILIDAD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Implicit costs (€)</t>
+          <t>Volatility</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1696,12 +1704,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dólar</t>
+          <t>Importe comprometido por añadas</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dollar</t>
+          <t>Committed amount by vintage</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1710,12 +1718,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aviso legal</t>
+          <t>Calificación BB</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Legal Notice</t>
+          <t>BB Rating</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1724,12 +1732,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fecha val.</t>
+          <t>Periodo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Valuation Date</t>
+          <t>Period</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1738,12 +1746,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1752,12 +1760,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Consumo defensivo</t>
+          <t>SALIDAS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Defensive consumption</t>
+          <t>OUTCOMES</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1766,12 +1774,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>JUL</t>
+          <t>RENTA FIJA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JUL</t>
+          <t>FIXED INCOME</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1780,12 +1788,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Total ETFs</t>
+          <t>Total autogestión</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Total ETFs</t>
+          <t>Total self-management</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1794,12 +1802,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>P/G inicio</t>
+          <t>INVERSIONES</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P/L since inception</t>
+          <t>INVESTMENTS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -1808,12 +1816,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>OTROS</t>
+          <t>Éxito</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -1822,12 +1830,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>key_example_plural--one</t>
+          <t>TVPI MEDIO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>%s Family Structure</t>
+          <t>Average TVPI</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -1836,22 +1844,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>key_example_plural</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>Sector 1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sector 1</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>key_example_plural--other</t>
+          <t>Efectivo y equivalentes</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>%s Family Structures</t>
+          <t>Cash and equivalents</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -1860,12 +1872,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Evolución de valoración</t>
+          <t>Dólar</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Valuation evolution</t>
+          <t>Dollar</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -1874,12 +1886,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IMPORTE TOTAL DISPUESTO</t>
+          <t>Delegado</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Total amount disbursed</t>
+          <t>Delegated</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -1888,12 +1900,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>Total costes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Total costs</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -1902,12 +1914,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Precio medio</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Average price</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -1916,12 +1928,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rentabilidad YTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>YTD Performance</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -1930,12 +1942,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Análisis de riesgos</t>
+          <t>Datos renta fija</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Risk analysis</t>
+          <t>Fixed Income Data</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -1944,12 +1956,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Capital invertido</t>
+          <t>3a Generación</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Invested capital</t>
+          <t>3rd Generation</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -1958,12 +1970,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>América del sur</t>
+          <t>Distribución por divisas</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Currencies distribution</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -1972,12 +1984,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>En el sector inmobiliario, hemos visto una revalorización cautelosa, impulsada por el interés en activos logísticos y residenciales, reflejo de un cambio en las dinámicas de trabajo y consumo post-pandemia.</t>
+          <t>Tipo de financiación</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>In the real estate sector, we have seen a cautious revaluation, driven by interest in logistics and residential assets, reflecting a change in post-pandemic work and consumption dynamics.</t>
+          <t>Type of financing</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -1986,12 +1998,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cuadro pagos</t>
+          <t>Distribución por entidad</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Payment schedule</t>
+          <t>Entity distribution</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -2000,12 +2012,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rendimiento y detalle de activos</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Performance and asset detail</t>
+          <t>DEC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -2014,12 +2026,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Representación personas físicas y jurídicas</t>
+          <t>Flujo de caja</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Representation of individuals and legal entities</t>
+          <t>Cash flow</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -2028,12 +2040,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>WAULT</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>WAULT</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -2042,12 +2054,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Geografia</t>
+          <t>key_example_plural--other</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>%s Family Structures</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -2056,12 +2068,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Éxito</t>
+          <t>key_example_plural--one</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>%s Family Structure</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -2070,26 +2082,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Detalle de otros activos</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Detail of other assets</t>
-        </is>
-      </c>
+          <t>key_example_plural</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>Geografía</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -2098,12 +2106,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Contribución a la rentabilidad</t>
+          <t>MOIC</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Contribution to performance</t>
+          <t>MOIC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2112,12 +2120,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Valor compra antes de tasación</t>
+          <t>Vencimiento</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Purchase value before appraisal</t>
+          <t>Maturity</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2126,12 +2134,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Distribución por tipo de activo</t>
+          <t>Volatilidad</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Distribution by asset type</t>
+          <t>Volatility</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2140,12 +2148,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Desactivada</t>
+          <t>Valor neto</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Deactivated</t>
+          <t>Net value</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2154,12 +2162,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>America del norte</t>
+          <t>Capital desinvertido</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Divested capital</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2168,12 +2176,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VOLATILIDAD</t>
+          <t>IMPORTE DESEMBOLSADO</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Volatility</t>
+          <t>AMOUNT DISBURSED</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2182,12 +2190,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Comprometido</t>
+          <t>Bankinter Premium Moderado B FI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Committed</t>
+          <t>Bankinter moderate premium B FI</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2196,12 +2204,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cant. acciones</t>
+          <t>VENCIMIENTO (Mil)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Number of shares</t>
+          <t>Maturity (Thousand)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2210,12 +2218,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sector 3</t>
+          <t>Custodio vs costes (medio)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sector 3</t>
+          <t>Custodian vs. average costs</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2224,12 +2232,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Costes implícitos</t>
+          <t>Vencimiento medio</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Implicit costs</t>
+          <t>Average maturity</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2238,12 +2246,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Distribución por geografía</t>
+          <t>Variación periodo</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Distribution by geography</t>
+          <t>Period variation</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2252,12 +2260,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Multiactivos y otros</t>
+          <t>Gobierno</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Multi-assets and others</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2266,12 +2274,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Coste por mandato</t>
+          <t>Costes</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cost per mandate</t>
+          <t>Costs</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2280,12 +2288,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Multip</t>
+          <t>RENTABILIDAD (%)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Multiple</t>
+          <t>PERFORMANCE (%)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2294,12 +2302,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Renta fija</t>
+          <t>Desde el período</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fixed income</t>
+          <t>From the period</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2308,12 +2316,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Análisis de patrimonio financiero</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Financial asset analysis</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2322,12 +2330,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Australasia</t>
+          <t>Compromiso</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Australasia</t>
+          <t>Commitment</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2336,12 +2344,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Gastos anuales</t>
+          <t>Compras del período</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Annual expenses</t>
+          <t>Purchases of the period</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2350,12 +2358,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Vencimiento 5-7 años</t>
+          <t>Dolar</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Maturity 5-7 years</t>
+          <t>Dollar</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2364,12 +2372,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IMPORTE DESEMBOLSADO</t>
+          <t>Alquilado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMOUNT DISBURSED</t>
+          <t>Rented</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2392,12 +2400,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>Real state</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Real estate</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2406,12 +2414,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IMPORTE</t>
+          <t>Resumen patrimonio global</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>Global asset summary</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -2420,26 +2428,30 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Implícito</t>
+          <t>Estructura familiar</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Implicit</t>
+          <t>Family structure</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Structure familière</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sr Preferred</t>
+          <t>Análisis de costes YTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sr preferred</t>
+          <t>YTD Cost analysis</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2462,12 +2474,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gobierno</t>
+          <t>Distribución por sector</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Distribution by sector</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2476,12 +2488,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Div. yield.</t>
+          <t>Distribución por mandato y entidad</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Div. yield</t>
+          <t>Distribution by mandate and entity</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2490,12 +2502,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Flujo de Caja Anual</t>
+          <t>Tipo de activo</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Annual cash flow</t>
+          <t>Asset type</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2504,12 +2516,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Desarrollo</t>
+          <t>Entradas de liquidez</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Liquidity inflows</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2518,12 +2530,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>INMOBILIARIO</t>
+          <t>Rentabilidad-YTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>REAL ESTATE</t>
+          <t>YTD Return</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -2532,12 +2544,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Rating AA</t>
+          <t>RENTABILIDAD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AA Rating</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2546,12 +2558,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Distribución por sector</t>
+          <t>Yield neta actual</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Distribution by sector</t>
+          <t>Net yield current</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -2560,12 +2572,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias</t>
+          <t>Fecha call</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Real estate investments</t>
+          <t>Call date</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2574,12 +2586,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>Nombre inmueble</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>Property name</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2588,12 +2600,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ENTRADAS PERIODO</t>
+          <t>RENT. INICIO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PERIOD INCOMES</t>
+          <t>RETURN FROM START</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -2602,12 +2614,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Custodio vs costes (medio)</t>
+          <t>Total Europa</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Custodian vs. average costs</t>
+          <t>Total Europe</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -2616,12 +2628,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SEP</t>
+          <t>Salidas de liquidez</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SEP</t>
+          <t>Liquidity outflows</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2630,12 +2642,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VALORACIÓN ANTERIOR</t>
+          <t>Renta variable</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PREVIOUS VALUATION</t>
+          <t>Variable income</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2644,12 +2656,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BENEFICIOS AGREGADOS</t>
+          <t>Fecha val.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AGGREGATE PROFITS</t>
+          <t>Valuation Date</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2658,12 +2670,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ventas del período</t>
+          <t>Yield neta compra</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sales of the period</t>
+          <t>Net yield purchase</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2672,12 +2684,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Valor (mill)</t>
+          <t>Multip</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Value (mil)</t>
+          <t>Multiple</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -2686,12 +2698,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Div. Yield.</t>
+          <t>Consumo</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Div. yield</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -2700,12 +2712,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Importe nominal</t>
+          <t>Distribución por geografía</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nominal Amount</t>
+          <t>Distribution by geography</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -2714,12 +2726,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Distribución Anual</t>
+          <t>Datos medios</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Annual distribution</t>
+          <t>Average data</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -2728,12 +2740,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Desinversiones totales por periodo</t>
+          <t>Plusvalias no realizadas</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Total disinvestments per period</t>
+          <t>Unrealized capital gains</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -2742,12 +2754,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Comprometido (mn)</t>
+          <t>Total desarrollo</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Committed (mn)</t>
+          <t>Total development</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -2756,12 +2768,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Representación de personas físicas y jurídicas</t>
+          <t>Total privado</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Representation of individuals and legal entities</t>
+          <t>Total private</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -2770,12 +2782,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Calificación</t>
+          <t>Detalle por tipo de activo</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Detail by asset type</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -2784,12 +2796,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Cant. acciones</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Number of shares</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -2798,12 +2810,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JUN</t>
+          <t>Valor actual</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>JUN</t>
+          <t>Current value</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -2812,12 +2824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Rating AAA</t>
+          <t>Mantenimiento de cuenta</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AAA Rating</t>
+          <t>Account maintenance</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2826,12 +2838,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Distribución por gestión</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Distribution by management</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -2840,12 +2852,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RENTAS PERÍODO</t>
+          <t>Rentabilidad neta</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RENTALS PERIOD</t>
+          <t>Net return</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -2854,12 +2866,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Sr Unsecured</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Sr unsecured</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -2868,12 +2880,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>mes</t>
+          <t>Distribución Anual</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Annual distribution</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2882,12 +2894,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MILLONES DE EUROS</t>
+          <t>Representación personas físicas y jurídicas</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MILLION EUROS</t>
+          <t>Representation of individuals and legal entities</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -2896,12 +2908,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Distribución por facturación</t>
+          <t>Cartera Titular Individual</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Distribution by billing</t>
+          <t>Individual holder portfolio</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -2910,12 +2922,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Peso patrimonio por tipo de riesgo</t>
+          <t>Vencimiento 5-7 años</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Weight of assets by risk type</t>
+          <t>Maturity 5-7 years</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -2924,12 +2936,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ubicación</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>March</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -2938,12 +2950,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sanidad</t>
+          <t>Valoración online</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Online valuation</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -2952,26 +2964,34 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Materiales básicos</t>
+          <t>legal.subnotice.4</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Basic materials</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+          <t>This document is the property of BANKINTER. Any names, designs, and/or logos related to Bankinter or any other entity of its group reflected in this document are duly registered trademarks of BANKINTER. The content of this document is not of a tax nature, and its purpose is not tax advice, nor does it serve as any official certificate for these purposes. The results and returns included in it may not be suitable for tax purposes, and, if applicable, taxation should be consulted with the corresponding advisors.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>El presente documento es propiedad de BANKINTER. Cualesquiera denominaciones, diseños y/o logotipos relativos a Bankinter o a cualquier otra entidad de su grupo reflejados en este documento, son marcas debidamente registradas por BANKINTER. El contenido del presente documento carece de naturaleza tributaria y su finalidad no es el asesoramiento fiscal, ni servir de certificado oficial alguno a estos efectos. Los resultados y rentabilidades que en él figuran podrían no resultar los adecuados a efectos fiscales y, si fuera el caso, la tributación debería consultarse con los correspondientes asesores.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ce document appartient à Bankinter.Toutes les dénominations, conceptions et / ou logos liées à Bankinter ou toute autre entité de votre groupe reflétée dans ce document, sont dûment enregistrées par Bankinter.Le contenu de ce document n'a pas de nature fiscale et son objectif n'est pas le conseil budgétaire, ni pour servir de certificat officiel à ces fins.Les résultats et la rentabilité qui y apparaissent ne pourraient pas être suffisants à des fins fiscales et, le cas échéant, la fiscalité devrait être consultée avec les conseillers correspondants.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Distribución por divisa</t>
+          <t>RTO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Currency distribution</t>
+          <t>RTO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -2980,26 +3000,30 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Manufactura</t>
+          <t>Enero 2023 - Marzo 2023</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>January 2023 - March 2023</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Janvier 2023 - mars 2023</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Rentabilidad - Renta fija (bonos directos)</t>
+          <t>DPIx</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Return - Fixed income (Direct bonds)</t>
+          <t>DPIx</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -3008,12 +3032,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VENCIMIENTO (Mill)</t>
+          <t>Inversiones Inmobiliarias</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MATURITY (Thousand)</t>
+          <t>Real estate investments</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -3022,12 +3046,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Otros activos</t>
+          <t>YIELD NETA (%)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Other Assets</t>
+          <t>NET YIELD (%)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -3036,12 +3060,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Con un enfoque en combatir la inflación, aún persistente desde el año anterior, las subidas de tipos de interés han sido una constante, lo cual ha repercutido en los mercados de renta fija, incrementando los rendimientos de los bonos y, por ende, ajustando las valoraciones en los mercados de renta variable.</t>
+          <t>IMPORTE FINANCIACIÓN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>With a focus on combating inflation, still persistent since the previous year, interest rate increases have been a constant, which has had an impact on the fixed income markets, increasing bond yields and, therefore, adjusting the valuations in equity markets.</t>
+          <t>FINANCING AMOUNT</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -3050,12 +3074,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Tipo de activo</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Asset type</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -3064,12 +3088,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Gasto medio (mes)</t>
+          <t>Distribución por credit rating</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Average expense (month)</t>
+          <t>Distribution by credit rating</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -3078,12 +3102,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IMPORTE TOTAL DISPONIBLE</t>
+          <t>RENTAS PERIODO</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Total amount available</t>
+          <t>INCOMES PERIOD</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -3092,12 +3116,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Valor de compra</t>
+          <t>P/G latente</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Purchase value</t>
+          <t>Unrealized P/L</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -3106,12 +3130,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RVPI</t>
+          <t>IMPORTE TOTAL DISPONIBLE</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RVPI</t>
+          <t>Total amount available</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -3120,12 +3144,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>VENCIMIENTO (Mill)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>MATURITY (Thousand)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -3134,12 +3158,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RENTABILIDAD</t>
+          <t>Distribución global y rentabilidad por clase de activo</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Global distribution and return by asset class</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -3148,12 +3172,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Evolución del patrimonio por clases de activos</t>
+          <t>Ebidta</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Wealth evolution by asset classes</t>
+          <t>Ebitda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3162,12 +3186,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Privado</t>
+          <t>RENTAS</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>INCOMES</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -3176,12 +3200,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Total delegado</t>
+          <t>MOIC ventas totales (x)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Total delegated</t>
+          <t>MOIC total sales (x)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -3190,26 +3214,30 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Vencimiento</t>
+          <t>Visión mercado</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Maturity</t>
+          <t>Market vision</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Vision du marché</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Desinversiones totales (nº)</t>
+          <t>ENE</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Total divestments (no.)</t>
+          <t>JAN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -3218,12 +3246,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Monto costes explícitos</t>
+          <t>RENTAS PERÍODO</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Explicit costs amount</t>
+          <t>RENTALS PERIOD</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -3232,12 +3260,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Costes por entidad</t>
+          <t>Materiales básicos</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Costs per entity</t>
+          <t>Basic materials</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -3246,12 +3274,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Salidas</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Outflows</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -3260,12 +3288,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Total asesoramiento</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Total advisory</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -3274,12 +3302,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Bonos</t>
+          <t>JUN</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Bonds</t>
+          <t>JUN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -3288,12 +3316,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Efectivo y equivalentes</t>
+          <t>Renta variable - Acciones</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cash and equivalents</t>
+          <t>Variable income - Stocks</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -3302,12 +3330,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Distribución por generación</t>
+          <t>Costes explicitos</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Distribution by generation</t>
+          <t>Explicit costs</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -3316,26 +3344,30 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Distribuciones (mn)</t>
+          <t>RENTABILIDAD PERIODO</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Distributions (mn)</t>
+          <t>PERIOD RETURN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Période de période</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Inversiones financieras</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Companies</t>
+          <t>Financial investments</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -3344,12 +3376,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Costes explícitos (%)</t>
+          <t>Detalle titularidad</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Explicit costs (%)</t>
+          <t>Ownership detail</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -3358,12 +3390,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>IMPORTE FINANCIACIÓN</t>
+          <t>Calificación B</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FINANCING AMOUNT</t>
+          <t>B Rating</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -3372,12 +3404,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Credit rating</t>
+          <t>DPI</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Credit rating</t>
+          <t>DPI</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -3386,12 +3418,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Rating inferior a B</t>
+          <t>INV. ALTERNATIVAS</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Below B Rating</t>
+          <t>ALTERNATIVE INVESTMENTS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -3400,30 +3432,26 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RENTABILIDAD PERIODO</t>
+          <t>ETFs</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PERIOD RETURN</t>
+          <t>ETFs</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Période de période</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Valor residual</t>
+          <t>IMPORTE</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Residual value</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -3432,12 +3460,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Distribución por tipo</t>
+          <t>América del sur</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Distribution by type</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -3446,12 +3474,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TIR</t>
+          <t>ABR</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>YTM</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -3460,12 +3488,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MOIC ventas totales (x)</t>
+          <t>Australasia</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MOIC total sales (x)</t>
+          <t>Australasia</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -3474,12 +3502,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cartera Titular Individual</t>
+          <t>Distribución de activos</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Individual holder portfolio</t>
+          <t>Asset distribution</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -3488,12 +3516,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PENDIENTE DE DESEMBOLSO</t>
+          <t>Facturación</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PENDING DISBURSEMENT</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -3502,12 +3530,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Yield neta compra</t>
+          <t>Distribución por titularidad</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Net yield purchase</t>
+          <t>Ownership distribution</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -3516,12 +3544,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Costes explicitos</t>
+          <t>America del sur</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Explicit costs</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -3530,12 +3558,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Consumo cíclico</t>
+          <t>P/G inicio</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cyclical consumption</t>
+          <t>P/L since inception</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -3544,12 +3572,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Distribución por credit rating</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Distribution by credit rating</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -3558,12 +3586,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1a Generación</t>
+          <t>Asesoramiento</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1st Generation</t>
+          <t>Advisory</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -3572,12 +3600,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Explícito</t>
+          <t>Distribución</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Explicit</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -3586,12 +3614,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Rentabilidad neta</t>
+          <t>Activada</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Net return</t>
+          <t>Activated</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -3600,12 +3628,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Compras y vendas del período</t>
+          <t>Cuadro pagos</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Purchases and sales of the period</t>
+          <t>Payment schedule</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -3614,12 +3642,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Compras del período</t>
+          <t>Importe distribución</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Purchases of the period</t>
+          <t>Distribution amount</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -3628,12 +3656,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Informe patrimonial global</t>
+          <t>Calificación</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Global asset report</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -3642,12 +3670,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -3656,12 +3684,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Gestora</t>
+          <t>Calificación BBB</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>BBB Rating</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -3670,12 +3698,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Distribución por uso</t>
+          <t>1a Generación</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Distribution by use</t>
+          <t>1st Generation</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -3684,12 +3712,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Total delegado</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Total delegated</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -3698,12 +3726,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Total costes aprox.</t>
+          <t>Recepcion y transmision de ordenes</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Total approx. costs</t>
+          <t>Reception and transmission of orders</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -3712,12 +3740,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Renta variable</t>
+          <t>TIR objetivo</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Variable income</t>
+          <t>Target IRR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -3726,12 +3754,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Sr Unsecured</t>
+          <t>Distribución por generación</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sr unsecured</t>
+          <t>Distribution by generation</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -3740,12 +3768,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SALIDAS PERIODO</t>
+          <t>TPVI</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PERIOD OUTCOMES</t>
+          <t>TVPI</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -3754,12 +3782,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PATRIMONIO INICIAL</t>
+          <t>Patrimonio financiero - Bonos</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>INITIAL ASSETS</t>
+          <t>Financial wealth - Bonds</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -3768,12 +3796,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Dato</t>
+          <t>Importe</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -3782,12 +3810,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Distribución por entidad</t>
+          <t>Rating AA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Entity distribution</t>
+          <t>AA Rating</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -3796,12 +3824,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RENDIMIENTO</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PERFORMANCE</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -3810,12 +3838,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Patrimonio financiero</t>
+          <t>Geografia</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Financial wealth</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -3824,12 +3852,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>TOTAL DISTRIBUCIONES</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>TOTAL DISTRIBUTIONS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -3838,12 +3866,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Empleados</t>
+          <t>Empresas no cotizadas</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Employees</t>
+          <t>Unlisted companies</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -3852,12 +3880,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Línea evolutiva del patrimonio</t>
+          <t>Flujos de caja</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Asset evolution line</t>
+          <t>Cash flows</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -3866,52 +3894,40 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>legal.notice.2</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>When data in currencies other than euros are provided, a note should be included to clarify how the conversion to euros is done.</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Cuando se indiquen datos en divisas distintas al euro, se debería incorporar una nota que aclare cómo se realiza la conversión al euro.</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Lorsque les données sont indiquées dans des devises autres que l'euro, une note qui clarifie comment la conversion à l'euro doit être incorporée doit être incorporée.</t>
-        </is>
-      </c>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RENTABILIDAD YTD</t>
+          <t>Sanidad</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>YTD RETURN</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Rentabilité YTD</t>
-        </is>
-      </c>
+      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Fondos y ETFs</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Funds and ETFs</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -3920,12 +3936,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Duración media</t>
+          <t>TIR</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Average duration</t>
+          <t>YTM</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -3934,30 +3950,26 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Enero 2023 - Marzo 2023</t>
+          <t>% sobre patrimonio</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>January 2023 - March 2023</t>
+          <t>% of assets</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Janvier 2023 - mars 2023</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Variación periodo</t>
+          <t>HY</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Period variation</t>
+          <t>High yield</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -3966,12 +3978,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rentabilidad-YTD</t>
+          <t>Distribución por gestora</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>YTD Return</t>
+          <t>Distribution by manager</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -3980,12 +3992,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Coste adquisición</t>
+          <t>Top 10 holdings - Peso - Renta fija</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acquisition Cost</t>
+          <t>Top 10 holdings - Weight - Fixed Income</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -3994,12 +4006,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Coste invertido (mn)</t>
+          <t>VARIACIÓN VALORACIÓN</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Invested cost (mn)</t>
+          <t>VALUATION VARIATION</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -4008,12 +4020,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Renta</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -4022,12 +4034,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Crédito</t>
+          <t>Empleados</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Employees</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -4036,12 +4048,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FEB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FEB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -4050,12 +4062,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Intereses</t>
+          <t>Importe por añadas</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Interests</t>
+          <t>Amount by vintages</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -4064,12 +4076,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Acumulado</t>
+          <t>ENTRADAS</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cumulative</t>
+          <t>INCOMES</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -4078,12 +4090,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>P/G</t>
+          <t>Cupon rate</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>G/L</t>
+          <t>Coupon rate</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -4092,12 +4104,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Tasación</t>
+          <t>TIR media</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Appraisal</t>
+          <t>Average YTM</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -4106,12 +4118,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>INV. ALTERNATIVAS</t>
+          <t>Valor (mill)</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ALTERNATIVE INVESTMENTS</t>
+          <t>Value (mil)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -4120,12 +4132,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Private Equity</t>
+          <t>Vencimiento 1-3 años</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Private equity</t>
+          <t>Maturity 1-3 years</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -4134,12 +4146,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Superficie</t>
+          <t>Tensiones geopolíticas</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Surface area</t>
+          <t>Geopolitical tensions</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -4148,12 +4160,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>LIQUIDEZ</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>LIQUIDITY</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -4162,12 +4174,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Educación</t>
+          <t>Renta fija - Fondos de Inversión y ETFs</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Fixed income - Investment funds and ETFs</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -4176,12 +4188,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Reparto de dividendos</t>
+          <t>Mandato</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Dividend Distribution</t>
+          <t>Mandate</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -4190,12 +4202,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Entradas</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Inflows</t>
+          <t>September</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -4204,12 +4216,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Distribución de activos</t>
+          <t>Distribución global</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Asset distribution</t>
+          <t>Global distribution</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -4218,12 +4230,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2a Generación</t>
+          <t>En blanco</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2nd Generation</t>
+          <t>Blank</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -4232,12 +4244,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>Ubicación</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DEC</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -4246,34 +4258,26 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>legal.subnotice.2</t>
+          <t>Financiación</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>It should be noted that the past performance of securities and instruments, as well as past investment results, do not guarantee future performance or results.</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Se deberá tener en cuenta que la evolución pasada de los valores e instrumentos, así como los resultados pasados de las inversiones no garantizan la evolución o resultados futuros.</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Il convient de tenir compte du fait que l'évolution passée des valeurs et des instruments, ainsi que les résultats antérieurs des investissements ne garantissent pas l'évolution ou les résultats futurs.</t>
-        </is>
-      </c>
+          <t>Financing</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Distribución por mandato y entidad</t>
+          <t>Salidas</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Distribution by mandate and entity</t>
+          <t>Outflows</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -4282,12 +4286,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Calificación AA</t>
+          <t>Multiplicador sector</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AA Rating</t>
+          <t>Sector Multiplier</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -4296,12 +4300,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RENDIMIENTOS Y RENTAS PERIODO</t>
+          <t>Otros financiero</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PERIOD INCOMES AND RETURNS</t>
+          <t>Other financial</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -4310,12 +4314,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>(precio mercado)</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>AUG</t>
+          <t>(market price)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -4324,12 +4328,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Multiactivos y Otros</t>
+          <t>Total rentabilidad</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Multi-assets and Others</t>
+          <t>Total return</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -4338,12 +4342,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Renta variable - Acciones</t>
+          <t>Explícito</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Variable income - Stocks</t>
+          <t>Explicit</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -4352,12 +4356,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Hipotecario</t>
+          <t>RENTA VARIABLE</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>EQUITY</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -4366,12 +4370,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Costes por tipo de gestión</t>
+          <t>Largo Plazo</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Costs by management type</t>
+          <t>Long Term</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -4380,12 +4384,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Comprometido (mn)</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Committed (mn)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -4394,12 +4398,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Valoración online</t>
+          <t>Evolución del patrimonio por clases de activos</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Online valuation</t>
+          <t>Wealth evolution by asset classes</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -4408,12 +4412,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Patrimonio financiero - Bonos</t>
+          <t>TIR compra</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Financial wealth - Bonds</t>
+          <t>YTM at purchase</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -4422,12 +4426,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>YIELD NETA (%)</t>
+          <t>ENTRADAS PERIODO</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NET YIELD (%)</t>
+          <t>PERIOD INCOMES</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -4436,12 +4440,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Valoración (precio mercado)</t>
+          <t>Desembolso Anual</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Valuation (market price)</t>
+          <t>Annual disbursement</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -4450,12 +4454,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Tipo de comisión</t>
+          <t>Costes implícitos</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Commission type</t>
+          <t>Implicit costs</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -4464,12 +4468,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Gasto medio (mes)</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>Average expense (month)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -4478,12 +4482,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Rentabilidad</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -4492,26 +4496,34 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Serv. comunicaciones</t>
+          <t>legal.subnotice.3</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Communication services</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
+          <t>In no event shall BANKINTER, its branches, and/or its directors, officers, employees, and authorized personnel be liable for any damages, losses, claims, or expenses of any kind arising out of the use of this document or its contents.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>En ningún caso BANKINTER, sus sucursales, y/o sus consejeros, directivos, empleados y personal autorizado serán responsables de cualquier tipo de perjuicio, pérdidas, reclamaciones o gastos de ningún tipo, que pudiera resultar del uso de este documento o de su contenido.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>En aucun cas Bankinter, leurs succursales et / ou leurs administrateurs, gestionnaires, employés et personnels autorisés seront responsables de tout type de dommage, de pertes, de réclamations ou de dépenses de toute nature, qui pourrait résulter de l'utilisation de ce document ou de son contenu .</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Logistico</t>
+          <t>Distribución por activo</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Logistic</t>
+          <t>Distribution by asset</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -4520,26 +4532,34 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Calificación AAA</t>
+          <t>legal.notice.3</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>AAA Rating</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+          <t>This report has been prepared by Bankinter, S.A., an entity supervised by the Spanish competent authority (Bank of Spain and Comisión Nacional del Mercado de Valores) registered in their official records with number 0128.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>El presente informe ha sido realizado por Bankinter, S.A., entidad sometida a supervisión de la autoridad competente española (Banco de España y Comisión Nacional del Mercado de Valores) inscrita en sus registros oficiales con el número 0128.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ce rapport a été fait par Bankinter, S.A., une entité sous réserve de la supervision de l'autorité compétente espagnole (Bank of Spain and National Securities Market Commission) enregistrée dans ses dossiers officiels avec le numéro 0128.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Distribución por tipo de mandato</t>
+          <t>Top 10 holdings - Rentabilidad - Renta fija (bonos directos)</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Distribution by type of mandate</t>
+          <t>Top 10 holdings - Return - Fixed income (Direct bonds)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -4548,12 +4568,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Sr Non Preferred</t>
+          <t>Credit rating</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sr non preferred</t>
+          <t>Credit rating</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -4562,12 +4582,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Consumo</t>
+          <t>Costes explícitos</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Consumption</t>
+          <t>Explicit costs</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -4576,12 +4596,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>America</t>
+          <t>Distribución de patrimonio financiero</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>America</t>
+          <t>Distribution of financial wealth</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -4590,12 +4610,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Vencimientos</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Maturities</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -4604,12 +4624,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Distribución por divisas</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Currencies distribution</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -4618,12 +4638,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Cartera Titular Conjunta</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Joint holder portfolio</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -4632,30 +4652,26 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Inv. financieras</t>
+          <t>VARIACIÓN PERIODO</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Financial inv.</t>
+          <t>PERIOD VARIATION</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Inv.financier</t>
-        </is>
-      </c>
+      <c r="D297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Precio medio</t>
+          <t>Cap.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Average price</t>
+          <t>Cap.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -4664,26 +4680,30 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RENTAS</t>
+          <t>RENTABILIDAD INICIO</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>INCOMES</t>
+          <t>RETURN SINCE START</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Début de la rentabilité</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ABR</t>
+          <t>PATRIMONIO INICIAL</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>INITIAL ASSETS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -4692,12 +4712,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>OTROS</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -4706,12 +4726,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Tipo de financiación</t>
+          <t>RENT. YTD</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Type of financing</t>
+          <t>YTD RETURN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -4720,12 +4740,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Valoración</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -4734,12 +4754,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Rating BB</t>
+          <t>Top 10 holdings - Rentabilidad - Renta variable</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BB Rating</t>
+          <t>Top 10 holdings - Return - Equities</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -4748,12 +4768,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>PATRIMONIO ACTUAL</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>CURRENT ASSETS</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -4762,12 +4782,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Importe desembolsado</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Disbursed amount</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -4776,12 +4796,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Primero, la política monetaria de los principales bancos centrales, especialmente la Reserva Federal de EE. UU. y el Banco Central Europeo, ha seguido siendo un factor determinante.</t>
+          <t>Premium moderado</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>First, the monetary policy of major central banks, especially the US Federal Reserve and the European Central Bank, has remained a determining factor.</t>
+          <t>Moderate premium</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -4790,12 +4810,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Importe por añadas</t>
+          <t>Rating inferior a B</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Amount by vintages</t>
+          <t>Below B Rating</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -4804,12 +4824,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Recepcion y transmision de ordenes</t>
+          <t>Coste adquisición</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Reception and transmission of orders</t>
+          <t>Acquisition Cost</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -4818,12 +4838,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Titulizados</t>
+          <t>Rentabilidad anual</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Securitized</t>
+          <t>Annual return</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -4832,12 +4852,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN</t>
+          <t>Visión de futuro en la estrategia de inversiones</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DISTRIBUTION</t>
+          <t>Future vision in investment strategy</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -4846,12 +4866,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Cap.</t>
+          <t>Corporativos</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cap.</t>
+          <t>Corporates</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -4860,12 +4880,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MONETARIO</t>
+          <t>Rating BBB</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MONETARY</t>
+          <t>BBB Rating</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -4874,12 +4894,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -4888,12 +4908,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>MOIC</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MOIC</t>
+          <t>January</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -4902,12 +4922,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Desinversiones totales</t>
+          <t>Cupón medio</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Total disinvestments</t>
+          <t>Average coupon</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -4916,12 +4936,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Patrimonio global</t>
+          <t>Distribución por entidad financiera</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Global wealth</t>
+          <t>Distribution by financial entity</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -4930,12 +4950,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Alquilado</t>
+          <t>Reino unido</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Rented</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -4944,12 +4964,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>FACTURACIÓN AGREGADA</t>
+          <t>Serv. comunicaciones</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AGGREGATE BILLING</t>
+          <t>Communication services</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -4958,12 +4978,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Duración</t>
+          <t>Costes explícitos (€)</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>Explicit costs (€)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -4972,12 +4992,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Desglose generacional</t>
+          <t>Libra</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Generational breakdown</t>
+          <t>Pound</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -4986,12 +5006,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Detalle por tipo de activo</t>
+          <t>Flujo de Caja Anual</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Detail by asset type</t>
+          <t>Annual cash flow</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -5000,12 +5020,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Inversiones totales periodo</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Total investments per period</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -5014,12 +5034,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Fondos y ETFs</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Funds and ETFs</t>
+          <t>February</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -5028,12 +5048,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Superfície</t>
+          <t>Calificación inferior a B</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Surface area</t>
+          <t>Below B Rating</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -5042,12 +5062,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mirando hacia el futuro, la incertidumbre geopolítica y las negociaciones comerciales continúan siendo áreas de interés, con potencial para influir significativamente en la confianza del mercado y las decisiones de inversión. La capacidad de los inversores para adaptarse a estos cambios, manteniendo una visión equilibrada y a largo plazo, será crucial para navegar los meses venideros.</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Looking ahead, geopolitical uncertainty and trade negotiations continue to be areas of interest, with the potential to significantly influence market sentiment and investment decisions. Investors' ability to adapt to these changes, while maintaining a balanced, long-term view, will be crucial to navigating the months ahead.</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -5056,12 +5076,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>África</t>
+          <t>Inversiones totales periodo</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Total investments per period</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -5070,12 +5090,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Fondos</t>
+          <t>Patrimonio no financiero</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Funds</t>
+          <t>Non-Financial Assets</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -5084,12 +5104,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Flujos de caja</t>
+          <t>Latinoamérica</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cash flows</t>
+          <t>Latin America</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -5098,26 +5118,30 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ENTRADAS</t>
+          <t>Inv. alternativas</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>INCOMES</t>
+          <t>Alternative inv.</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Inv.alternatives</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Vencimiento 3-5 años</t>
+          <t>Rentabilidad/riesgo por mandato</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Maturity 3-5 years</t>
+          <t>Performance/Risk by mandate</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -5126,12 +5150,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Latinoamérica</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -5140,12 +5164,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ETFs</t>
+          <t>Mayo</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ETFs</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -5154,12 +5178,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Libra</t>
+          <t>FINANCIACIÓN</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Pound</t>
+          <t>Financing</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -5168,12 +5192,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Percentage</t>
+          <t>Patrimonio global</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Percentage</t>
+          <t>Global wealth</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -5182,12 +5206,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Valor compra antes de tasación</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Purchase value before appraisal</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -5196,12 +5220,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Corporativos</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Corporates</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -5210,12 +5234,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LIQUIDEZ</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>LIQUIDITY</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -5224,12 +5248,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Nº de participaciones</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Number of shares</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -5238,12 +5262,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Inmobiliario</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Real estate</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -5252,12 +5276,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Detalle de la cartera</t>
+          <t>Inmobiliario</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Portfolio detail</t>
+          <t>Real estate</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -5266,12 +5290,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>VARIACIÓN VALORACIÓN</t>
+          <t>Gastos anuales</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>VALUATION VARIATION</t>
+          <t>Annual expenses</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -5280,12 +5304,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Promedio de TIR</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Average YTM</t>
+          <t>EUROPE</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -5294,12 +5318,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Concepto</t>
+          <t>Índice de contenidos</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Concept</t>
+          <t>Table of contents</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -5308,12 +5332,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Vehículos invertidos (nº)</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>Invested vehicles (no.)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -5322,12 +5346,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Desde el período</t>
+          <t>TIR esperada</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>From the period</t>
+          <t>Expected IRR</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -5336,30 +5360,26 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Otras inversiones</t>
+          <t>Capital invertido</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Other inv.</t>
+          <t>Invested capital</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Autres investissements</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Vencimiento 1-3 años</t>
+          <t>Millones de euros</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Maturity 1-3 years</t>
+          <t>Millions of euros</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -5368,12 +5388,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>Distribución por gestión</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>EUROPE</t>
+          <t>Distribution by management</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -5382,12 +5402,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TVPI</t>
+          <t>Distribución por vencimientos</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TVPI</t>
+          <t>Distribution by maturities</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -5396,12 +5416,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Gestión</t>
+          <t>El primer trimestre de 2023 ha sido notable por su dinamismo y la adaptación continua de los mercados financieros a un entorno económico global en constante cambio. Entre enero y marzo, hemos observado varias tendencias clave que han influido en la percepción y estrategias de los inversores.</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>The first quarter of 2023 has been notable for its dynamism and the continued adaptation of financial markets to an ever-changing global economic environment. Between January and March, we have observed several key trends that have influenced investor perceptions and strategies.</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -5410,12 +5430,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Financiación</t>
+          <t>OCT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Financing</t>
+          <t>OCT</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -5424,12 +5444,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>COMPROMETIDO</t>
+          <t>Serv. financieros</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>COMMITTED</t>
+          <t>Financial services</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -5438,12 +5458,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Entidad</t>
+          <t>Reparto de dividendos</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Entity</t>
+          <t>Dividend Distribution</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -5452,26 +5472,30 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Rentabilidad periodo</t>
+          <t>Bankinter Family Office</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Period return</t>
+          <t>Bankinter Family Office</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Bankinter Family Office</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Tipo de comisión</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commission type</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -5480,12 +5504,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Reino unido</t>
+          <t>Renta fija</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Fixed income</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -5494,12 +5518,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Energía</t>
+          <t>Gestión</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -5508,12 +5532,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Análisis de tendencias financieras actuales</t>
+          <t>Distribución por uso</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Analysis of current financial trends</t>
+          <t>Distribution by use</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -5522,34 +5546,26 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>legal.subnotice.3</t>
+          <t>IMPORTE TOTAL LIQUIDEZ</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>In no event shall BANKINTER, its branches, and/or its directors, officers, employees, and authorized personnel be liable for any damages, losses, claims, or expenses of any kind arising out of the use of this document or its contents.</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>En ningún caso BANKINTER, sus sucursales, y/o sus consejeros, directivos, empleados y personal autorizado serán responsables de cualquier tipo de perjuicio, pérdidas, reclamaciones o gastos de ningún tipo, que pudiera resultar del uso de este documento o de su contenido.</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>En aucun cas Bankinter, leurs succursales et / ou leurs administrateurs, gestionnaires, employés et personnels autorisés seront responsables de tout type de dommage, de pertes, de réclamations ou de dépenses de toute nature, qui pourrait résulter de l'utilisation de ce document ou de son contenu .</t>
-        </is>
-      </c>
+          <t>TOTAL LIQUIDITY AMOUNT</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Vehículos invertidos (nº)</t>
+          <t>COMPROMETIDO</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Invested vehicles (no.)</t>
+          <t>COMMITTED</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -5558,12 +5574,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Datos renta fija</t>
+          <t>Detalle de otros activos</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Fixed Income Data</t>
+          <t>Detail of other assets</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -5572,12 +5588,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Distribución por gestora</t>
+          <t>Sr Non Preferred</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Distribution by manager</t>
+          <t>Sr non preferred</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -5586,12 +5602,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Costes explícitos (€)</t>
+          <t>Monetario</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Explicit costs (€)</t>
+          <t>Monetary</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -5600,12 +5616,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RENTABILIDAD (%)</t>
+          <t>RENDIMIENTO</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>PERFORMANCE (%)</t>
+          <t>PERFORMANCE</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -5614,12 +5630,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Bankinter Premium Dinamico B FI</t>
+          <t>Duración</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Bankinter dynamic premium B FI</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -5628,12 +5644,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>TIR actual</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Current YTM</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -5642,12 +5658,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Total autogestión</t>
+          <t>IMPORTE TOTAL DISPUESTO</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Total self-management</t>
+          <t>Total amount disbursed</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -5656,12 +5672,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Distribución de patrimonio financiero</t>
+          <t>Inversiones alternativas</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Distribution of financial wealth</t>
+          <t>Alternative investments</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -5670,12 +5686,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Peso - Renta variable</t>
+          <t>Compras y vendas del período</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Weight - Equities</t>
+          <t>Purchases and sales of the period</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -5684,12 +5700,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Junio</t>
+          <t>Renta variable - Fondos y ETFs</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>Variable income - Funds and ETFs</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -5698,12 +5714,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NOV</t>
+          <t>P/G periodo</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NOV</t>
+          <t>P/L period</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -5712,12 +5728,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TPVI</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>TVPI</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -5726,26 +5742,34 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Total desarrollo</t>
+          <t>legal.subnotice.2</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Total development</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
+          <t>It should be noted that the past performance of securities and instruments, as well as past investment results, do not guarantee future performance or results.</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Se deberá tener en cuenta que la evolución pasada de los valores e instrumentos, así como los resultados pasados de las inversiones no garantizan la evolución o resultados futuros.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Il convient de tenir compte du fait que l'évolution passée des valeurs et des instruments, ainsi que les résultats antérieurs des investissements ne garantissent pas l'évolution ou les résultats futurs.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -5754,12 +5778,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Liquidez</t>
+          <t>Desinversiones totales por periodo</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Liquidity</t>
+          <t>Total disinvestments per period</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -5768,12 +5792,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>Rentabilidad mensual y acumulada</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>Monthly and cumulative performance</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -5782,12 +5806,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Cupones</t>
+          <t>Visión de mercado</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coupons</t>
+          <t>Market vision</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -5796,12 +5820,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Subordinated</t>
+          <t>Nº de participaciones</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Subordinated</t>
+          <t>Number of shares</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -5810,12 +5834,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>VENCIMIENTO (Mil)</t>
+          <t>Divisa</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Maturity (Thousand)</t>
+          <t>Currency</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -5824,12 +5848,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Dividendos</t>
+          <t>NOV</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Dividends</t>
+          <t>NOV</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -5838,12 +5862,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Sector 1</t>
+          <t>Total ETFs</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Sector 1</t>
+          <t>Total ETFs</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -5852,12 +5876,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Vencimientos</t>
+          <t>FEB</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Maturities</t>
+          <t>FEB</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -5866,12 +5890,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Autogestión</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Self-management</t>
+          <t>December</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -5880,12 +5904,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Total privado</t>
+          <t>Concepto</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Total private</t>
+          <t>Concept</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -5894,12 +5918,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>VALORACION ACTUAL</t>
+          <t>Autogestión</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Current valuation</t>
+          <t>Self-management</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -5908,12 +5932,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>RENTAS PERIODO</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>INCOMES PERIOD</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -5922,12 +5946,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Cupón medio</t>
+          <t>MONETARIO</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Average coupon</t>
+          <t>MONETARY</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -5936,12 +5960,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Renta fija - Bonos</t>
+          <t>Pat. financiero</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fixed income - Bonds</t>
+          <t>Financial wealth</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -5950,12 +5974,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>WAULT</t>
+          <t>Sector 3</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>WAULT</t>
+          <t>Sector 3</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -5964,12 +5988,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Con un enfoque en combatir la inflación, aún persistente desde el año anterior, las subidas de tipos de interés han sido una constante, lo cual ha repercutido en los mercados de renta fija, incrementando los rendimientos de los bonos y, por ende, ajustando las valoraciones en los mercados de renta variable.</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>With a focus on combating inflation, still persistent since the previous year, interest rate increases have been a constant, which has had an impact on the fixed income markets, increasing bond yields and, therefore, adjusting the valuations in equity markets.</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -5978,34 +6002,26 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>legal.subnotice.1</t>
+          <t>Dato</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>The information included in this report is provided based on sources considered reliable, as well as information provided by the client.</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>La información que se incluye en este informe se proporciona basándose en fuentes consideradas como fiables, así como en información proporcionada por el propio cliente.</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Les informations incluses dans ce rapport sont fournies sur la base de sources considérées comme fiables, ainsi que des informations fournies par le client lui-même.</t>
-        </is>
-      </c>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Periodo</t>
+          <t>JUL</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Period</t>
+          <t>JUL</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -6014,12 +6030,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Detalle titularidad</t>
+          <t>Neto</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ownership detail</t>
+          <t>Net</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -6028,12 +6044,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Crédito</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -6042,12 +6058,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Nº de acciones</t>
+          <t>Consumo cíclico</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Number of shares</t>
+          <t>Cyclical consumption</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -6056,12 +6072,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>DPI</t>
+          <t>Tasación</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>DPI</t>
+          <t>Appraisal</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -6070,12 +6086,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Calificación inferior a B</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Below B Rating</t>
+          <t>Companies</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -6084,12 +6100,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>YTD</t>
+          <t>Cartera Titular conjunta</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>YTD</t>
+          <t>Joint holder portfolio</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -6098,12 +6114,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>Distribución por tipo de activo</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>EQUITY</t>
+          <t>Distribution by asset type</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -6112,12 +6128,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Calificación BBB</t>
+          <t>Costes implícitos (€)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>BBB Rating</t>
+          <t>Implicit costs (€)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -6126,12 +6142,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Total Europa</t>
+          <t>Valor de compra</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Total Europe</t>
+          <t>Purchase value</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -6140,12 +6156,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>El primer trimestre de 2023 ha sido notable por su dinamismo y la adaptación continua de los mercados financieros a un entorno económico global en constante cambio. Entre enero y marzo, hemos observado varias tendencias clave que han influido en la percepción y estrategias de los inversores.</t>
+          <t>Promedio de TIR</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>The first quarter of 2023 has been notable for its dynamism and the continued adaptation of financial markets to an ever-changing global economic environment. Between January and March, we have observed several key trends that have influenced investor perceptions and strategies.</t>
+          <t>Average YTM</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -6154,12 +6170,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Inversiones inmobiliarias</t>
+          <t>VALORACION ACTUAL</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Real estate investments</t>
+          <t>Current valuation</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -6168,12 +6184,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Desembolsado</t>
+          <t>Junio</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Disbursed</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -6182,12 +6198,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Proyecciones liquidez</t>
+          <t>Línea evolutiva del patrimonio</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Liquidity projections</t>
+          <t>Asset evolution line</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -6196,12 +6212,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Bankinter</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Bankinter</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -6210,12 +6226,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Volatilidad</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Volatility</t>
+          <t>AUG</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -6224,12 +6240,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>TIR esperada</t>
+          <t>Contribución a la rentabilidad</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Expected IRR</t>
+          <t>Contribution to performance</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -6238,12 +6254,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Rating crédito</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Credit rating</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -6252,12 +6268,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Nombre inmueble</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Property name</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -6266,30 +6282,26 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>RENTABILIDAD INICIO</t>
+          <t>Precio</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>RETURN SINCE START</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>Début de la rentabilité</t>
-        </is>
-      </c>
+      <c r="D412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Calificación BB</t>
+          <t>Detalle de la cartera</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>BB Rating</t>
+          <t>Portfolio detail</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -6298,12 +6310,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Costes</t>
+          <t>Market Cap</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Costs</t>
+          <t>Market cap</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -6312,12 +6324,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Rendimiento global</t>
+          <t>Patrimonio financiero</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Global performance</t>
+          <t>Financial wealth</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -6326,12 +6338,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Compromiso</t>
+          <t>Implícito</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Commitment</t>
+          <t>Implicit</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -6340,12 +6352,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>TIR media</t>
+          <t>MILLONES DE EUROS</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Average YTM</t>
+          <t>MILLION EUROS</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -6354,12 +6366,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Activada</t>
+          <t>Importe nominal</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Activated</t>
+          <t>Nominal Amount</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -6368,12 +6380,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TOTAL DISTRIBUCIONES</t>
+          <t>Nº DE ACTIVOS</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TOTAL DISTRIBUTIONS</t>
+          <t>Nº OF ASSETS</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -6382,12 +6394,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>Peso</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -6396,12 +6408,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Valor neto</t>
+          <t>Coste por mandato</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Net value</t>
+          <t>Cost per mandate</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -6410,12 +6422,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Patrimonio actual</t>
+          <t>Multiactivos y Otros</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Current wealth</t>
+          <t>Multi-assets and Others</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -6424,12 +6436,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Monto costes explícitos</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Explicit costs amount</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -6438,12 +6450,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Tensiones geopolíticas</t>
+          <t>RENT. PERIODO</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Geopolitical tensions</t>
+          <t>PERIOD RETURN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -6452,34 +6464,26 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>legal.subnotice.4</t>
+          <t>Rating crédito</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>This document is the property of BANKINTER. Any names, designs, and/or logos related to Bankinter or any other entity of its group reflected in this document are duly registered trademarks of BANKINTER. The content of this document is not of a tax nature, and its purpose is not tax advice, nor does it serve as any official certificate for these purposes. The results and returns included in it may not be suitable for tax purposes, and, if applicable, taxation should be consulted with the corresponding advisors.</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>El presente documento es propiedad de BANKINTER. Cualesquiera denominaciones, diseños y/o logotipos relativos a Bankinter o a cualquier otra entidad de su grupo reflejados en este documento, son marcas debidamente registradas por BANKINTER. El contenido del presente documento carece de naturaleza tributaria y su finalidad no es el asesoramiento fiscal, ni servir de certificado oficial alguno a estos efectos. Los resultados y rentabilidades que en él figuran podrían no resultar los adecuados a efectos fiscales y, si fuera el caso, la tributación debería consultarse con los correspondientes asesores.</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>Ce document appartient à Bankinter.Toutes les dénominations, conceptions et / ou logos liées à Bankinter ou toute autre entité de votre groupe reflétée dans ce document, sont dûment enregistrées par Bankinter.Le contenu de ce document n'a pas de nature fiscale et son objectif n'est pas le conseil budgétaire, ni pour servir de certificat officiel à ces fins.Les résultats et la rentabilité qui y apparaissent ne pourraient pas être suffisants à des fins fiscales et, le cas échéant, la fiscalité devrait être consultée avec les conseillers correspondants.</t>
-        </is>
-      </c>
+          <t>Credit rating</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Gestión discrecional</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Discretionary management</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -6488,12 +6492,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Real state</t>
+          <t>Inversiones inmobiliarias</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Real estate</t>
+          <t>Real estate investments</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -6502,12 +6506,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Visión de mercado</t>
+          <t>2a Generación</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Market vision</t>
+          <t>2nd Generation</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -6516,12 +6520,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Importe desembolsado</t>
+          <t>Total asesoramiento</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Disbursed amount</t>
+          <t>Total advisory</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -6530,12 +6534,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Renta variable - Fondos y ETFs</t>
+          <t>Desinversiones totales (nº)</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Variable income - Funds and ETFs</t>
+          <t>Total divestments (no.)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -6544,12 +6548,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RENT. YTD</t>
+          <t>DISTRIBUCIÓN</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>YTD RETURN</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -6558,48 +6562,48 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>E/S ESTIMADAS 3M</t>
+          <t>legal.notice.2</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ESTIMATED 3M I/O</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr"/>
+          <t>When data in currencies other than euros are provided, a note should be included to clarify how the conversion to euros is done.</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Cuando se indiquen datos en divisas distintas al euro, se debería incorporar una nota que aclare cómo se realiza la conversión al euro.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Lorsque les données sont indiquées dans des devises autres que l'euro, une note qui clarifie comment la conversion à l'euro doit être incorporée doit être incorporée.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>legal.notice.3</t>
+          <t>Resultados Corporativos del cuarto trimestre</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>This report has been prepared by Bankinter, S.A., an entity supervised by the Spanish competent authority (Bank of Spain and Comisión Nacional del Mercado de Valores) registered in their official records with number 0128.</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>El presente informe ha sido realizado por Bankinter, S.A., entidad sometida a supervisión de la autoridad competente española (Banco de España y Comisión Nacional del Mercado de Valores) inscrita en sus registros oficiales con el número 0128.</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>Ce rapport a été fait par Bankinter, S.A., une entité sous réserve de la supervision de l'autorité compétente espagnole (Bank of Spain and National Securities Market Commission) enregistrée dans ses dossiers officiels avec le numéro 0128.</t>
-        </is>
-      </c>
+          <t>Fourth quarter corporate results</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Cartera Titular conjunta</t>
+          <t>YTD</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Joint holder portfolio</t>
+          <t>YTD</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -6608,12 +6612,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Calificación B</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>B Rating</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -6622,12 +6626,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Fecha valoración</t>
+          <t>Rendimiento y detalle de activos</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Valuation date</t>
+          <t>Performance and asset detail</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -6636,12 +6640,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Titular</t>
+          <t>Energía</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -6650,12 +6654,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>INVERSIONES</t>
+          <t>FACTURACIÓN AGREGADA</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>INVESTMENTS</t>
+          <t>AGGREGATE BILLING</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -6664,12 +6668,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>DPIx</t>
+          <t>Superfície</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>DPIx</t>
+          <t>Surface area</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -6678,12 +6682,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -6692,12 +6696,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Renta fija - Fondos de Inversión y ETFs</t>
+          <t>Logistico</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Fixed income - Investment funds and ETFs</t>
+          <t>Logistic</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -6706,12 +6710,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Evolución</t>
+          <t>P/G Latentes</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Evolution</t>
+          <t>W/L Latent</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -6720,12 +6724,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Coste invertido</t>
+          <t>Fecha valoración</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Invested cost</t>
+          <t>Valuation date</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -6734,12 +6738,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Peso</t>
+          <t>Rendimiento inmobiliario</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Real estate performance</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -6748,12 +6752,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>P/G PERIODO</t>
+          <t>America</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>W/L PERIOD</t>
+          <t>America</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -6762,12 +6766,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RENTABILIDAD PERÍODO</t>
+          <t>America del norte</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>PERIOD RETURN</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -6776,12 +6780,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RENT. PERIODO</t>
+          <t>(precio medio)</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>PERIOD RETURN</t>
+          <t>(average price)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -6790,12 +6794,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Inversiones alternativas</t>
+          <t>BENEFICIOS AGREGADOS</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Alternative investments</t>
+          <t>AGGREGATE PROFITS</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -6804,12 +6808,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>R. Ponderada período</t>
+          <t>Distribución por TIR y rating</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Weighted return period</t>
+          <t>Distribution by YTM and rating</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
@@ -6818,12 +6822,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Entradas de liquidez</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Liquidity inflows</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -6832,12 +6836,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Datos medios</t>
+          <t>R. Ponderada</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Average data</t>
+          <t>Weighted return</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -6846,26 +6850,30 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Distribución global y rentabilidad por clase de activo</t>
+          <t>Inv. inmobiliarias</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Global distribution and return by asset class</t>
+          <t>Real estate inv.</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
-      <c r="D452" t="inlineStr"/>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Inv.immobilier</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Total fondos</t>
+          <t>Coste adquisición (precio medio)</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Total funds</t>
+          <t>Acquisition Cost (average price)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -6874,12 +6882,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Derivados</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Derivatives</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -6888,12 +6896,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TVPI MEDIO</t>
+          <t>Gestión discrecional de carteras</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Average TVPI</t>
+          <t>Discretionary portfolio management</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -6902,12 +6910,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>Hipotecario</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -6916,12 +6924,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Reporting global</t>
+          <t>Múltiplos por año</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Global reporting</t>
+          <t>Multiples per year</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -6930,12 +6938,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>FINANCIACIÓN</t>
+          <t>Gestión discrecional</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Financing</t>
+          <t>Discretionary management</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -6944,12 +6952,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Oceanía</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -6958,12 +6966,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>P/G periodo</t>
+          <t>Renta fija - Bonos</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>P/L period</t>
+          <t>Fixed income - Bonds</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -6972,12 +6980,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>P/G</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>G/L</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -6986,26 +6994,30 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Custodia</t>
+          <t>Inv. financieras</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Custody</t>
+          <t>Financial inv.</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Inv.financier</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Market Cap</t>
+          <t>Zona geográfica</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Market cap</t>
+          <t>Geographic area</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -7014,12 +7026,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Patrimonial</t>
+          <t>Comprometido</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Wealth</t>
+          <t>Committed</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -7028,12 +7040,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Valor actual</t>
+          <t>Desinversiones totales</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Current value</t>
+          <t>Total disinvestments</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -7042,12 +7054,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>IMPORTE TOTAL LIQUIDEZ</t>
+          <t>Derivados</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TOTAL LIQUIDITY AMOUNT</t>
+          <t>Derivatives</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
@@ -7056,12 +7068,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>3a Generación</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>3rd Generation</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
@@ -7070,30 +7082,26 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Inv. inmobiliarias</t>
+          <t>Prelación de pagos</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Real estate inv.</t>
+          <t>Payment prelation</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>Inv.immobilier</t>
-        </is>
-      </c>
+      <c r="D468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Distribución por activo</t>
+          <t>TOTAL LLAMADAS CAPITAL</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Distribution by asset</t>
+          <t>TOTAL CAPITAL CALLS</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -7102,12 +7110,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Distribución por titularidad</t>
+          <t>Rentas</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ownership distribution</t>
+          <t>Incomes</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -7116,12 +7124,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Rentabilidad YTD</t>
+          <t>Primero, la política monetaria de los principales bancos centrales, especialmente la Reserva Federal de EE. UU. y el Banco Central Europeo, ha seguido siendo un factor determinante.</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>YTD Performance</t>
+          <t>First, the monetary policy of major central banks, especially the US Federal Reserve and the European Central Bank, has remained a determining factor.</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -7130,12 +7138,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Peso - Renta fija</t>
+          <t>Gestora</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Top 10 holdings - Weight - Fixed Income</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -7144,12 +7152,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TIR compra</t>
+          <t>Rating A</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>YTM at purchase</t>
+          <t>A Rating</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -7158,12 +7166,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Bankinter</t>
+          <t>Vencimiento 3-5 años</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Bankinter</t>
+          <t>Maturity 3-5 years</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -7172,12 +7180,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Serv. financieros</t>
+          <t>IMPORTE AMORTIZADO PERIODO</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Financial services</t>
+          <t>Amortized amount for period</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -7186,12 +7194,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Evolución patrimonial y rentabilidad</t>
+          <t>Entradas</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Asset evolution and performance</t>
+          <t>Inflows</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -7200,12 +7208,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Delegado</t>
+          <t>Custodia</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Delegated</t>
+          <t>Custody</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -7214,12 +7222,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Total rentabilidad</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Total return</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -7228,26 +7236,30 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Análisis de costes YTD</t>
+          <t>RENTABILIDAD YTD</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>YTD Cost analysis</t>
+          <t>YTD RETURN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
-      <c r="D479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Rentabilité YTD</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Visión de futuro en la estrategia de inversiones</t>
+          <t>Patrimonio actual</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Future vision in investment strategy</t>
+          <t>Current wealth</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -7256,12 +7268,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Zona geográfica</t>
+          <t>Calificación AA</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Geographic area</t>
+          <t>AA Rating</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -7270,12 +7282,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Pr. compra</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Purchase price</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -7284,12 +7296,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Norteamérica</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
@@ -7298,12 +7310,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Market cap</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Market cap</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
@@ -7312,12 +7324,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Largo Plazo</t>
+          <t>RENDIMIENTOS Y RENTAS PERIODO</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Long Term</t>
+          <t>PERIOD INCOMES AND RETURNS</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -7326,12 +7338,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Distribución por facturación</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Distribution by billing</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -7340,12 +7352,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Pat. financiero</t>
+          <t>Desembolsado (mn)</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Financial wealth</t>
+          <t>Disbursed (mn)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -7354,12 +7366,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Bankinter Premium Moderado B FI</t>
+          <t>Sr Preferred</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Bankinter moderate premium B FI</t>
+          <t>Sr preferred</t>
         </is>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -7368,12 +7380,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Geografía</t>
+          <t>Evolución</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>Evolution</t>
         </is>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -7382,12 +7394,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>(precio medio)</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>(average price)</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -7396,12 +7408,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Oceanía</t>
+          <t>Yield</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Yield</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -7410,12 +7422,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -7424,34 +7436,26 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>legal.notice.1</t>
+          <t>Distribución por tipo</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>When reporting returns, it is necessary to specify the calculation method. For example, in the Excellence Management report, it is stated that 'The return is calculated based on the initial contribution to the Excellence Management service, without taking into account subsequent contributions or redemptions.'</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>Cuando se indican rentabilidades, es necesario indicar el método de cálculo de estas. Por ejemplo, en el reporte de Excellence Management, se indica que “La rentabilidad se calcula sobre la primera aportación al servicio de Excellence Management, sin tener en cuenta aportaciones ni reembolsos posteriores.”</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>Lorsque cela est indiqué, il est nécessaire d'indiquer la méthode de calcul de ces derniers.Par exemple, dans le rapport de gestion de l'excellence, il est indiqué que "la rentabilité est calculée sur la première contribution au service de gestion d'excellence, sans prendre en compte les contributions ou les remboursements ultérieurs".</t>
-        </is>
-      </c>
+          <t>Distribution by type</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Divisa</t>
+          <t>Cupones</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>Coupons</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -7460,30 +7464,26 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>VALORACIÓN ACTUAL</t>
+          <t>Participaciones</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>CURRENT VALUATION</t>
+          <t>Shares</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Évaluation actuelle</t>
-        </is>
-      </c>
+      <c r="D495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Financiero</t>
+          <t>Total costes aprox.</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Total approx. costs</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -7492,12 +7492,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>IMPORTE AMORTIZADO PERIODO</t>
+          <t>Desarrollo</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Amortized amount for period</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -7506,12 +7506,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Sin rating</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>No Rating</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -7520,12 +7520,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Flujo de caja</t>
+          <t>Valoración</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cash flow</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -7534,12 +7534,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>Socio limitado</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>FIXED INCOME</t>
+          <t>Limited Partner</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
@@ -7548,12 +7548,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Renta</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
@@ -7562,12 +7562,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Euros</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -7576,12 +7576,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Sin rating</t>
+          <t>Desembolsado</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>No Rating</t>
+          <t>Disbursed</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -7590,12 +7590,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>RENT. INICIO</t>
+          <t>Rating B</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RETURN FROM START</t>
+          <t>B Rating</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -7604,12 +7604,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Socio limitado</t>
+          <t>Informe patrimonial global</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Limited Partner</t>
+          <t>Global asset report</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -7618,12 +7618,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Millones de euros</t>
+          <t>Valor</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Millions of euros</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -7632,12 +7632,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Rentabilidad periodo</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>Period return</t>
         </is>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -7646,12 +7646,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Desembolso Anual</t>
+          <t>Aviso legal</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Annual disbursement</t>
+          <t>Legal Notice</t>
         </is>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -7660,12 +7660,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ENE</t>
+          <t>Desglose generacional</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>Generational breakdown</t>
         </is>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -7674,12 +7674,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>DEUDA</t>
+          <t>TIPO INTERÉS MEDIO</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>DEBT</t>
+          <t>Average interest rate</t>
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -7688,12 +7688,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>África</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -7702,12 +7702,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Rendimiento inmobiliario</t>
+          <t>Superficie</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Real estate performance</t>
+          <t>Surface area</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -7716,12 +7716,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Resultados Corporativos del cuarto trimestre</t>
+          <t>Cartera Gestionada Bankinter</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Fourth quarter corporate results</t>
+          <t>Bankinter managed portfolio</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -7730,12 +7730,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SALIDAS</t>
+          <t>Distribuciones (mn)</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>OUTCOMES</t>
+          <t>Distributions (mn)</t>
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -7744,12 +7744,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Norteamérica</t>
+          <t>Europa</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -7758,12 +7758,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -7772,12 +7772,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Cupon rate</t>
+          <t>Política Monetaria de la Reserva Federal</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Coupon rate</t>
+          <t>Federal reserve monetary policy</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
@@ -7786,12 +7786,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>America del sur</t>
+          <t>Representación de personas físicas y jurídicas</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Representation of individuals and legal entities</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
@@ -7800,12 +7800,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>OCT</t>
+          <t>Entidad</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>OCT</t>
+          <t>Entity</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -7814,12 +7814,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Empresas no cotizadas</t>
+          <t>Rendimiento global</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Unlisted companies</t>
+          <t>Global performance</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
